--- a/medicine/Psychotrope/Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York/Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York.xlsx
+++ b/medicine/Psychotrope/Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York/Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cocktails_nomm%C3%A9s_d%27apr%C3%A8s_les_arrondissements_de_New_York</t>
+          <t>Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les cocktails nommés d'après les arrondissements de New York sont cinq variantes de cocktails[1] nommés des noms des 5 arrondissements de New York aux États-Unis.
+Les cocktails nommés d'après les arrondissements de New York sont cinq variantes de cocktails nommés des noms des 5 arrondissements de New York aux États-Unis.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cocktails_nomm%C3%A9s_d%27apr%C3%A8s_les_arrondissements_de_New_York</t>
+          <t>Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ces 5 cocktails sont nommés des noms des 5 arrondissements de New York : Manhattan, Brooklyn, Queens, Bronx, et Staten Island[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ces 5 cocktails sont nommés des noms des 5 arrondissements de New York : Manhattan, Brooklyn, Queens, Bronx, et Staten Island :
 			Manhattan (cocktail)
 			Brooklyn (cocktail)
 			Bronx (cocktail)
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cocktails_nomm%C3%A9s_d%27apr%C3%A8s_les_arrondissements_de_New_York</t>
+          <t>Liste_des_cocktails_nommés_d'après_les_arrondissements_de_New_York</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Quelques autres cocktails newyorkais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Long Island iced tea, tequila, gin, vodka, rhum, liqueur d'oranges, cola
 New York Sour, whisky, jus de citron, sirop de sucre, blanc d’œuf, vin rouge</t>
